--- a/results/ttr_f_length.xlsx
+++ b/results/ttr_f_length.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mijn Drive\Studie informatiekunde\master\master project\project\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB64FEB-9843-457A-80C4-8AA650FC96B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082CD903-67F9-41BE-85D3-907F07C63BEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10590" yWindow="660" windowWidth="21600" windowHeight="11385" xr2:uid="{06BB9475-5A88-436C-B9C7-67C650ECF6D7}"/>
+    <workbookView xWindow="22932" yWindow="672" windowWidth="23256" windowHeight="12576" xr2:uid="{06BB9475-5A88-436C-B9C7-67C650ECF6D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$E$46</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>0.014107998171320548</t>
   </si>
@@ -279,22 +282,13 @@
     <t>66.95</t>
   </si>
   <si>
-    <t>62.76</t>
-  </si>
-  <si>
     <t>70.90</t>
   </si>
   <si>
     <t>50.02</t>
   </si>
   <si>
-    <t>53.94</t>
-  </si>
-  <si>
     <t>66.18</t>
-  </si>
-  <si>
-    <t>77.05</t>
   </si>
   <si>
     <t>63.87</t>
@@ -363,76 +357,19 @@
 wordfreqlist</t>
   </si>
   <si>
-    <t>F-score python</t>
-  </si>
-  <si>
     <t>F-score manual</t>
   </si>
   <si>
-    <t xml:space="preserve">WR-P-E-A_discussion_lists.lemmaposfreqlist.tsv </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WR-P-E-C_e-magazines.lemmaposfreqlist.tsv </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WR-P-E-E_e-newsletters.lemmaposfreqlist.tsv </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WR-P-E-F_press_releases.lemmaposfreqlist.tsv </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WR-P-E-G_subtitles.lemmaposfreqlist.tsv </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WR-P-E-H_teletext_pages.lemmaposfreqlist.tsv </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WR-P-E-I_web_sites.lemmaposfreqlist.tsv </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WR-P-E-J_wikipedia.lemmaposfreqlist.tsv </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WR-P-E-K_blogs.lemmaposfreqlist.tsv </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WR-P-P-B_books.lemmaposfreqlist.tsv </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WR-P-P-C_brochures.lemmaposfreqlist.tsv </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WR-P-P-D_newsletters.lemmaposfreqlist.tsv </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WR-P-P-E_guides_manuals.lemmaposfreqlist.tsv </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WR-P-P-F_legal_texts.lemmaposfreqlist.tsv </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WR-P-P-G_newspapers.lemmaposfreqlist.tsv </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WR-P-P-H_periodicals_magazines.lemmaposfreqlist.tsv </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WR-P-P-I_policy_documents.lemmaposfreqlist.tsv </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WR-P-P-J_proceedings.lemmaposfreqlist.tsv </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WR-P-P-K_reports.lemmaposfreqlist.tsv </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WR-U-E-E_written_assignments.lemmaposfreqlist.tsv </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WS-U-E-A_auto_cues.lemmaposfreqlist.tsv </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WS-U-T-B_texts_for_the_visually_impaired.lemmaposfreqlist.tsv </t>
+    <t>52.23</t>
+  </si>
+  <si>
+    <t>66.65</t>
+  </si>
+  <si>
+    <t>77.16</t>
+  </si>
+  <si>
+    <t>F-score</t>
   </si>
 </sst>
 </file>
@@ -454,7 +391,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,6 +401,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,6 +486,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -555,9 +499,8 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -872,769 +815,666 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666D560A-A55A-4DD3-BA6C-6226192E9864}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:A1048576"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1"/>
-    <col min="7" max="9" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>110</v>
+      <c r="F1" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="1">
+        <v>82</v>
+      </c>
+      <c r="B2" s="12">
+        <v>77.156424544277101</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="1">
         <v>122901</v>
       </c>
-      <c r="C2" s="1">
+      <c r="G2" s="1">
         <v>778</v>
       </c>
-      <c r="D2" s="1">
+      <c r="H2" s="1">
         <v>158</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="F2" s="12">
-        <v>47.014477283341101</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="1">
+        <v>81</v>
+      </c>
+      <c r="B3" s="11">
+        <v>73.180035438377502</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="1">
         <v>19292577</v>
       </c>
-      <c r="C3" s="1">
+      <c r="G3" s="1">
         <v>507</v>
       </c>
-      <c r="D3" s="1">
+      <c r="H3" s="1">
         <v>38052</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="12">
-        <v>54.812819178120698</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>46</v>
+      <c r="I3" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="1">
+        <v>80</v>
+      </c>
+      <c r="B4" s="11">
+        <v>73.152326785465903</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="1">
         <v>1072993</v>
       </c>
-      <c r="C4" s="1">
+      <c r="G4" s="1">
         <v>86</v>
       </c>
-      <c r="D4" s="1">
+      <c r="H4" s="1">
         <v>12477</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="12">
-        <v>52.946984657450997</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>52</v>
+      <c r="I4" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="1">
+        <v>100</v>
+      </c>
+      <c r="B5" s="11">
+        <v>73.027798647633304</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="1">
         <v>48840514</v>
       </c>
-      <c r="C5" s="1">
+      <c r="G5" s="1">
         <v>702091</v>
       </c>
-      <c r="D5" s="1">
+      <c r="H5" s="1">
         <v>70</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" s="12">
-        <v>59.887074544412897</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>50</v>
+      <c r="I5" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="1">
+        <v>79</v>
+      </c>
+      <c r="B6" s="12">
+        <v>70.900332602095503</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="1">
         <v>8955445</v>
       </c>
-      <c r="C6" s="1">
+      <c r="G6" s="1">
         <v>18699</v>
       </c>
-      <c r="D6" s="1">
+      <c r="H6" s="1">
         <v>479</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="12">
-        <v>59.883990852243102</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>61</v>
+      <c r="I6" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="1">
+        <v>78</v>
+      </c>
+      <c r="B7" s="11">
+        <v>70.456518528367297</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="1">
         <v>209762</v>
       </c>
-      <c r="C7" s="1">
+      <c r="G7" s="1">
         <v>12</v>
       </c>
-      <c r="D7" s="1">
+      <c r="H7" s="1">
         <v>17480</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="12">
-        <v>29.960081993742499</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>49</v>
+      <c r="I7" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="1">
+        <v>74</v>
+      </c>
+      <c r="B8" s="11">
+        <v>66.986797421961398</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="1">
         <v>9156974</v>
       </c>
-      <c r="C8" s="1">
+      <c r="G8" s="1">
         <v>7860</v>
       </c>
-      <c r="D8" s="1">
+      <c r="H8" s="1">
         <v>1165</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="12">
-        <v>61.680829682819898</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>58</v>
+      <c r="I8" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="6">
+        <v>77</v>
+      </c>
+      <c r="B9" s="11">
+        <v>66.9465942704323</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="7">
         <v>31504</v>
       </c>
-      <c r="C9" s="6">
+      <c r="G9" s="7">
         <v>9</v>
       </c>
-      <c r="D9" s="6">
+      <c r="H9" s="7">
         <v>3500</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="12">
-        <v>28.588603029574401</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>53</v>
+      <c r="I9" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="12">
-        <v>29.392446633825902</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B10" s="12">
+        <v>66.654759890566794</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="1">
+        <v>76</v>
+      </c>
+      <c r="B11" s="11">
+        <v>66.614488145094498</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="1">
         <v>183635773</v>
       </c>
-      <c r="C11" s="1">
+      <c r="G11" s="1">
         <v>708600</v>
       </c>
-      <c r="D11" s="1">
+      <c r="H11" s="1">
         <v>259</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="12">
-        <v>71.149450498299899</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>48</v>
+      <c r="I11" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="1">
+        <v>75</v>
+      </c>
+      <c r="B12" s="12">
+        <v>66.182696819498304</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="1">
         <v>81674427</v>
       </c>
-      <c r="C12" s="1">
+      <c r="G12" s="1">
         <v>176043</v>
       </c>
-      <c r="D12" s="1">
+      <c r="H12" s="1">
         <v>464</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" s="12">
-        <v>72.035068889269994</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>47</v>
+      <c r="I12" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="1">
+        <v>73</v>
+      </c>
+      <c r="B13" s="11">
+        <v>64.343705901923897</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="1">
         <v>8009858</v>
       </c>
-      <c r="C13" s="1">
+      <c r="G13" s="1">
         <v>216</v>
       </c>
-      <c r="D13" s="1">
+      <c r="H13" s="1">
         <v>37083</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="12">
-        <v>54.862919712117403</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>56</v>
+      <c r="I13" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="1">
+        <v>71</v>
+      </c>
+      <c r="B14" s="11">
+        <v>63.60886727578</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="1">
         <v>300869</v>
       </c>
-      <c r="C14" s="1">
+      <c r="G14" s="1">
         <v>1053</v>
       </c>
-      <c r="D14" s="1">
+      <c r="H14" s="1">
         <v>286</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="12">
-        <v>44.826855872074503</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>62</v>
+      <c r="I14" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="1">
+        <v>72</v>
+      </c>
+      <c r="B15" s="12">
+        <v>63.395276809910897</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="1">
         <v>280058</v>
       </c>
-      <c r="C15" s="1">
+      <c r="G15" s="1">
         <v>18</v>
       </c>
-      <c r="D15" s="1">
+      <c r="H15" s="1">
         <v>15559</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="12">
-        <v>36.418387413962598</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>43</v>
+      <c r="I15" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="1">
+        <v>70</v>
+      </c>
+      <c r="B16" s="11">
+        <v>63.1189412314476</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="1">
         <v>1998854</v>
       </c>
-      <c r="C16" s="1">
+      <c r="G16" s="1">
         <v>81</v>
       </c>
-      <c r="D16" s="1">
+      <c r="H16" s="1">
         <v>24677</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="12">
-        <v>45.010062122670398</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>45</v>
+      <c r="I16" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="1">
+        <v>68</v>
+      </c>
+      <c r="B17" s="11">
+        <v>62.555771941928498</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="1">
         <v>22691639</v>
       </c>
-      <c r="C17" s="1">
+      <c r="G17" s="1">
         <v>8368</v>
       </c>
-      <c r="D17" s="1">
+      <c r="H17" s="1">
         <v>2712</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="12">
-        <v>57.462046386438203</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>51</v>
+      <c r="I17" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="1">
+        <v>67</v>
+      </c>
+      <c r="B18" s="11">
+        <v>58.321571417219403</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="1">
         <v>396615</v>
       </c>
-      <c r="C18" s="1">
+      <c r="G18" s="1">
         <v>93</v>
       </c>
-      <c r="D18" s="1">
+      <c r="H18" s="1">
         <v>4265</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="12">
-        <v>39.641539272535503</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>44</v>
+      <c r="I18" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="1">
+        <v>66</v>
+      </c>
+      <c r="B19" s="11">
+        <v>58.311562135295397</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="1">
         <v>598075</v>
       </c>
-      <c r="C19" s="1">
+      <c r="G19" s="1">
         <v>944</v>
       </c>
-      <c r="D19" s="1">
+      <c r="H19" s="1">
         <v>634</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="12">
-        <v>42.730411835714897</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>54</v>
+      <c r="I19" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="1">
+        <v>69</v>
+      </c>
+      <c r="B20" s="12">
+        <v>52.230419066220101</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="1">
         <v>2767169</v>
       </c>
-      <c r="C20" s="1">
+      <c r="G20" s="1">
         <v>956</v>
       </c>
-      <c r="D20" s="1">
+      <c r="H20" s="1">
         <v>2895</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="12">
-        <v>55.473900683481503</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>59</v>
+      <c r="I20" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="1">
+        <v>64</v>
+      </c>
+      <c r="B21" s="12">
+        <v>50.0194572480098</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="1">
         <v>20006635</v>
       </c>
-      <c r="C21" s="1">
+      <c r="G21" s="1">
         <v>124124</v>
       </c>
-      <c r="D21" s="1">
+      <c r="H21" s="1">
         <v>161</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="12">
-        <v>69.668157825739598</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>57</v>
+      <c r="I21" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="1">
+        <v>63</v>
+      </c>
+      <c r="B22" s="11">
+        <v>40.5245122884062</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="1">
         <v>302086</v>
       </c>
-      <c r="C22" s="1">
+      <c r="G22" s="1">
         <v>188</v>
       </c>
-      <c r="D22" s="1">
+      <c r="H22" s="1">
         <v>1607</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F22" s="12">
-        <v>24.646872297491999</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>115</v>
-      </c>
-      <c r="E37" t="s">
-        <v>132</v>
-      </c>
-      <c r="F37" s="11">
-        <v>61.556079849248498</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>131</v>
+      <c r="I22" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E46" xr:uid="{4062582D-D88E-4FEE-AD38-5576B3C80F65}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E46">
+      <sortCondition descending="1" ref="B1:B46"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:I23">
+    <sortCondition ref="H2"/>
+  </sortState>
   <mergeCells count="4">
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
